--- a/Primer sequences.xlsx
+++ b/Primer sequences.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maq28\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB097CCB-F85C-4591-A817-638A2E806C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9489001-BD90-4D05-960E-B928F02A8245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
+    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -371,24 +371,6 @@
     <t>PM Resistant</t>
   </si>
   <si>
-    <t>CTTCATGACTCCTTATGTGTCCA</t>
-  </si>
-  <si>
-    <t>BD02FAM</t>
-  </si>
-  <si>
-    <t>BD02HEX</t>
-  </si>
-  <si>
-    <t>BD02Com</t>
-  </si>
-  <si>
-    <t>GAAGGTGACCAAGTTCATGCT GGATTCTTGGGATCATTTATTCC</t>
-  </si>
-  <si>
-    <t>GAAGGTCGGAGTCAACGGATT GGATTCTTGGGATCATTTATTCT</t>
-  </si>
-  <si>
     <t>TAGCGTTGTTGTGTGTAATAAGTTCA</t>
   </si>
   <si>
@@ -416,9 +398,6 @@
     <t>OLS Common</t>
   </si>
   <si>
-    <t>CBDAS Inactivation</t>
-  </si>
-  <si>
     <t>KG9202-type (Purple)</t>
   </si>
   <si>
@@ -429,6 +408,27 @@
   </si>
   <si>
     <t>THCAS 3' UTR Specific HEX</t>
+  </si>
+  <si>
+    <t>CATCGAGCTGGAATCTTGTATGAG</t>
+  </si>
+  <si>
+    <t>GAAGGTCGGAGTCAACGGATT CTCTATAATTGAGATATGCCAATCTTGG</t>
+  </si>
+  <si>
+    <t>GAAGGTGACCAAGTTCATGCT  CTCTATAATTGAGATATGCCAATCTTGA</t>
+  </si>
+  <si>
+    <t>BD01-1HEX</t>
+  </si>
+  <si>
+    <t>BD01-1FAM</t>
+  </si>
+  <si>
+    <t>CBDAS1FWD</t>
+  </si>
+  <si>
+    <t>CBDAS P476S Inactivation</t>
   </si>
 </sst>
 </file>
@@ -827,14 +827,14 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="69.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="71.42578125" style="2" customWidth="1"/>
     <col min="4" max="4" width="27.28515625" style="2" customWidth="1"/>
     <col min="5" max="10" width="8.85546875"/>
   </cols>
@@ -850,7 +850,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -916,35 +916,35 @@
         <v>75</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>128</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -952,35 +952,35 @@
         <v>76</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>126</v>
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>88</v>
+        <v>23</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1030,37 +1030,37 @@
         <v>78</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>124</v>
       </c>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="F22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1279,7 +1279,7 @@
         <v>43</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1327,7 +1327,7 @@
         <v>54</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G50" s="1"/>
     </row>
@@ -1366,7 +1366,7 @@
         <v>61</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G54" s="1"/>
     </row>
@@ -1384,5 +1384,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Primer sequences.xlsx
+++ b/Primer sequences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maq28\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smartlab\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9489001-BD90-4D05-960E-B928F02A8245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2067AFE2-075B-49F0-8905-373370CD17A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1530" windowWidth="29040" windowHeight="15720" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{CC8F0C81-D8F2-4F11-B225-1E298F0294C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>BdBt1HEX</t>
   </si>
@@ -59,9 +59,6 @@
     <t>CGAACAAAGTATCCCACCTCTTCCAC</t>
   </si>
   <si>
-    <t>THCAS/CBDAS common FWD1</t>
-  </si>
-  <si>
     <t>OCBD1HEX</t>
   </si>
   <si>
@@ -429,6 +426,42 @@
   </si>
   <si>
     <t>CBDAS P476S Inactivation</t>
+  </si>
+  <si>
+    <t>**BD/BT requires some optimization for Tm still. Use CT1.1 for better chromatogram clustering**</t>
+  </si>
+  <si>
+    <t>CT1.1 (I, II, III)</t>
+  </si>
+  <si>
+    <t>CT1.1HEX</t>
+  </si>
+  <si>
+    <t>CT1.1FAM</t>
+  </si>
+  <si>
+    <t>CT1.1Com</t>
+  </si>
+  <si>
+    <t>CBDAS Specific FAM</t>
+  </si>
+  <si>
+    <t>CT1-haplotype pseudogene Specific HEX</t>
+  </si>
+  <si>
+    <t>Shifted to avoid pseudogene mutation sites found in some germplasm</t>
+  </si>
+  <si>
+    <t>GAAGGTGACCAAGTTCATGCT ATTAGACTGGTTGCTGTCCCAAA</t>
+  </si>
+  <si>
+    <t>GAAGGTCGGAGTCAACGGATT ATTAGACTGGTTGCTGTCCCAAC</t>
+  </si>
+  <si>
+    <t>CCTAGTTATGAAGTGAGTCATGAG</t>
+  </si>
+  <si>
+    <t>THCAS/CBDAS common FWD</t>
   </si>
 </sst>
 </file>
@@ -824,10 +857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC341AB6-AAFD-4F89-A2BC-FB71BB5CF2FA}">
-  <dimension ref="A1:G55"/>
+  <dimension ref="A1:G59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,9 +872,9 @@
     <col min="5" max="10" width="8.85546875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -850,10 +883,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
@@ -864,7 +897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
@@ -872,195 +905,195 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
+      <c r="D14" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>16</v>
+      <c r="C15" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1"/>
+        <v>18</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>21</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F20" s="1"/>
+        <v>15</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="F22" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>30</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="F23" s="1"/>
     </row>
@@ -1069,38 +1102,40 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>83</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>86</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="F27" s="1"/>
     </row>
@@ -1109,121 +1144,119 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D30" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>88</v>
-      </c>
       <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G33" s="1"/>
+        <v>89</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G34" s="1"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B35" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>16</v>
+      <c r="B35" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F37" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B38" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F38" s="1"/>
+      <c r="B38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>88</v>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F39" s="1"/>
     </row>
@@ -1232,155 +1265,197 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>109</v>
+        <v>67</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>94</v>
       </c>
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>110</v>
+      <c r="B42" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>95</v>
       </c>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="B43" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>120</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>46</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>107</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G49" s="1"/>
+        <v>119</v>
+      </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" s="1"/>
+        <v>45</v>
+      </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G51" s="1"/>
+        <v>48</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D59" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D55" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G55" s="1"/>
+      <c r="G59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
